--- a/test/filelist for test.xlsx
+++ b/test/filelist for test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\ian\myRefBasedMI\removed from RefBasedMI repo\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\ian\RefbasedMI\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0B5BB45-1475-4E92-8DBE-620FB7980C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66538A6C-CE6E-4864-BAC5-F816E1C32F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="19245"/>
+    <workbookView xWindow="12240" yWindow="975" windowWidth="23760" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filelist" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Error testing program.R</t>
   </si>
   <si>
-    <t>Ian_test_causal.R</t>
-  </si>
-  <si>
     <t>Main testing program.log</t>
   </si>
   <si>
@@ -158,12 +155,15 @@
   </si>
   <si>
     <t>test program</t>
+  </si>
+  <si>
+    <t>test_causal.R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,30 +657,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1037,14 +1031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,318 +1050,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
+      <c r="A1" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
+      <c r="A5" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="6" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="C43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
